--- a/02_programme_task/xlsx_out/48.Galatians.xlsx
+++ b/02_programme_task/xlsx_out/48.Galatians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1531 +453,1819 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul, an apostl16 e not from men nor through man, but through Jesus Christ and God the Father, who raised him from the dea16 d16 2</t>
+          <t>The Letter of Paul to the Galatians Greeting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Galatians 1:2</t>
+          <t>Galatians 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>and all the brother16's who are with me, To the churches of Galatia: 3</t>
+          <t>Paul, an a apostl e b not from men nor through man, but c through Jesus Christ and God the Father, d who raised him from the dea d</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Galatians 1:5</t>
+          <t>Galatians 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>to whom be the glory forever and ever. Amen. No Other Gospel 6</t>
+          <t>and all e the brother s who are with me, To f the churches of Galatia:</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Galatians 1:6</t>
+          <t>Galatians 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>I m astonished that you are so quickly deserting him who called you in the grace of Christ and are turning to a different gospe16 l16 7</t>
+          <t>g Grace to you and peace h from God our Father and the Lord Jesus Christ,</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Galatians 1:8</t>
+          <t>Galatians 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>But even if we or an angel from heaven should preach to you a gospel contrary to the one we preached to you, let him be accursed. 9</t>
+          <t>i who gave himself for our sins to deliver us from the pres?ent j evil age, according to the will of k our God and Father,</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Galatians 1:9</t>
+          <t>Galatians 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>As we have said before, so now I say again: If anyone is preaching to you a gospel contrary to the one you received, let him be accursed.</t>
+          <t>to whom be the glory forever and ever. Amen. No Other Gospel</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Galatians 1:10</t>
+          <t>Galatians 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>For am I now seeking the approval of man, or of God Or am I trying to please man If I were still trying to please man, I would not be a servan16 t of Christ. Paul Called by God</t>
+          <t>I am astonished that you are l so quickly deserting m him who called you in the grace of Christ and are turning to n a different gospe l</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Galatians 1:11</t>
+          <t>Galatians 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>For I would have you know, brothers, that the gospel that was preached by me is not man's gospel.</t>
+          <t>o not that there is another one, but p there are some who trouble you and want to distort the gospel of Christ.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Galatians 1:13</t>
+          <t>Galatians 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>For you have heard of my former life in Judaism, how I persecuted the church of God violently and tried to destroy it.</t>
+          <t>But even if we or q an angel from heaven should preach to you a gospel contrary to the one we preached to you, r let him be accursed.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Galatians 1:14</t>
+          <t>Galatians 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>And I was advancing in Judaism beyond many of my own age among my people, so extremely zealous was I for the traditions of my fathers.</t>
+          <t>As we have said before, so now I say again: If anyone is preaching to you a gospel contrary to the one you received, r let him be accursed.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Galatians 1:15</t>
+          <t>Galatians 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>But when he who had set me apart before I was born, and who called me by his grace,</t>
+          <t>For am I now seeking the approval of man, or of God? Or am I trying s to please man? If I were still trying to please man, I would not be a t servan t of Christ. Paul Called by God</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Galatians 1:16</t>
+          <t>Galatians 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>was pleased to reveal his Son t16 o me, in order that I might preach him among the Gentiles, I id not immediately consult with anyone;</t>
+          <t>For u I would have you know, brothers, that v the gospel that was preached by me is not man s gospel.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Galatians 1:17</t>
+          <t>Galatians 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>nor did I go up to Jerusalem to those who were apostles before me, but I went away into Arabia, and returned again to Damascus.</t>
+          <t>w For I did not receive it from any man, nor was I taught it, but I received it x through a revelation of Jesus Christ.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Galatians 1:18</t>
+          <t>Galatians 1:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Then after three years I went up to Jerusalem to visit Cephas and remained with him fifteen days.</t>
+          <t>For you have heard of y my former life in Judaism, how z I persecuted the church of God violently and tried to destroy it.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Galatians 1:19</t>
+          <t>Galatians 1:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>But I saw none of the other apostles except James the Lord's brother.</t>
+          <t>And I was advancing in Judaism beyond many of my own age among my people, so extremely a zealous was I for b the traditions of my fathers.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Galatians 1:20</t>
+          <t>Galatians 1:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>(In what I am writing to you, before God, I o not lie!)</t>
+          <t>But when he c who had set me apart d before I was born, and who e called me by his grace,</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Galatians 1:22</t>
+          <t>Galatians 1:16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>And I was still unknown in person to the churches of Judea that are in Christ.</t>
+          <t>was pleased to reveal his Son t o me, in order f that I might preach him among the Gentiles, I did not immediately consult with anyone;</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Galatians 1:23</t>
+          <t>Galatians 1:17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>They only were hearing it said, He who used to persecute us is now preaching the faith he once tried to destroy.</t>
+          <t>nor did I go up to Jerusalem to those who were apostles before me, but I went away into Arabia, and returned again to Damascus.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Galatians 1:24</t>
+          <t>Galatians 1:18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>And they glorified God because of me. Paul Accepted by the Apostles 2</t>
+          <t>Then g after three years I went up to Jerusalem to visit Cephas and remained with him fifteen days.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Galatians 2:1</t>
+          <t>Galatians 1:19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Then after fourteen years I went up again to Jerusalem with Barnabas, taking Titus along with me. 2</t>
+          <t>But I saw none of the other apostles except James h the Lord s brother.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Galatians 2:2</t>
+          <t>Galatians 1:20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>I went up because of a revelation and set before them (though privately before those who seemed influential) the gospel that I proclaim among the Gentiles, in order to make sure I was not running or had not run in vain. 3</t>
+          <t>j Then I went into the regions of Syria and Cilicia.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Galatians 2:3</t>
+          <t>Galatians 1:22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>But even Titus, who was with me, was not forced to be circumcised, though he was a Greek. 4</t>
+          <t>And I was still unknown in person to k the churches of Judea that are in Christ.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Galatians 2:5</t>
+          <t>Galatians 1:23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>to them we did not yield in submission even for a moment, so that the truth of the gospel might be preserved for you. 6</t>
+          <t>They only were hearing it said, He who used to persecute us is now preaching the faith he once tried to destroy.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Galatians 2:6</t>
+          <t>Galatians 1:24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>And from those who seemed to be influential (what they were makes no difference to me; God shows no partiality16 ) those, I say, who seemed influential added nothing to me. 7</t>
+          <t>And they glorified God because of me. Paul Accepted by the Apostles</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Galatians 2:7</t>
+          <t>Galatians 2:1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>On the contrary, when they saw that I had been entrusted with the gospel to the uncircumcised, just as Peter had been entrusted with the gospel to the circumcised 8</t>
+          <t>Then after fourteen years I went up again to Jerusalem with Barnabas, taking Titus along with me.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Galatians 2:8</t>
+          <t>Galatians 2:2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>(for he who worked through Peter for his apostolic ministry to the circumcised worked also through me for mine to the Gentiles), 9</t>
+          <t>I went up because of a revelation and set before them the gospel that m I proclaim among the Gentiles, n in order to make sure I was not running or had not o run in vain.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Galatians 2:9</t>
+          <t>Galatians 2:3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>and when James and Cephas and John, who seemed to be pillars, perceived the grace that was given to me, they gave the right hand of fellowship to Barnabas and me, that we should go to the Gentiles and they to the circumcised.</t>
+          <t>But even Titus, who was with me, p was not forced to be circumcised, though he was a Greek.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Galatians 2:10</t>
+          <t>Galatians 2:4</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Only, they asked us to remember the poor, the very thing I was eager to do. Paul Opposes Peter</t>
+          <t>q Yet because of false brothers secretly brought i n who r slipped in to spy out s our freedom that we have in Christ Jesus, t so that they might bring us into slaver y</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Galatians 2:11</t>
+          <t>Galatians 2:5</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>But when Cephas came to Antioch, I opposed him to his face, because he stood condemned.</t>
+          <t>to them we did not yield in submission even for a moment, so that u the truth of the gospel might be preserved for you.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Galatians 2:12</t>
+          <t>Galatians 2:6</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>For before certain men came from James, he was eating with the Gentiles; but when they came he drew back and separated himself, fearing the circumcision party.</t>
+          <t>And from those v who seemed to be influential those, I say, who seemed influential x added nothing to me.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Galatians 2:13</t>
+          <t>Galatians 2:7</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>And the rest of the Jews acted hypocritically along with him, so that even Barnabas was led astray by their hypocrisy.</t>
+          <t>On the contrary, when they saw that I had been y entrusted with z the gospel to the uncircumcised, just as Peter had been entrusted with the gospel to the circumcised</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Galatians 2:14</t>
+          <t>Galatians 2:8</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>But when I saw that their conduct was not in step with the truth of the gospel, I said to Cephas before them all, If you, though a Jew, live like a Gentile and not like a Jew, how can you force the Gentiles to live like Jews Justified by Faith</t>
+          <t>,</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Galatians 2:15</t>
+          <t>Galatians 2:9</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>We ourselves are Jews by birth and not Gentile sinners;</t>
+          <t>and when James and Cephas and John, v who seemed to be a pillars, perceived the b grace that was given to me, they c gave the right hand of fellowship to Barnabas and me, that we should go to the Gentiles and they to the circumcised.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Galatians 2:16</t>
+          <t>Galatians 2:10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>yet we know that a person is not justifie16 d by works of the law but through faith in Jesus Christ, so we also have believed in Christ Jesus, in order to be justified by faith in Christ and not by works of the law, because by works of the law no one will be justified.</t>
+          <t>Only, they asked us to remember the poor, d the very thing I was eager to do. Paul Opposes Peter</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Galatians 2:17</t>
+          <t>Galatians 2:11</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>But if, in our endeavor to be justified in Christ, we too were found to be sinners, is Christ then a servant of sin Certainly not!</t>
+          <t>But e when Cephas came to Antioch, I opposed him f to his face, because he stood condemned.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Galatians 2:18</t>
+          <t>Galatians 2:12</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>For if I rebuild what I tore down, I prove myself to be a transgressor.</t>
+          <t>For before certain men came from James, g he was eating with the Gentiles; but when they came he drew back and separated himself, fearing h the circumcision party.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Galatians 2:19</t>
+          <t>Galatians 2:13</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>For through the law I died to the law, so that I might live to God.</t>
+          <t>And the rest of the Jews acted hypocritically along with him, so that even Barnabas was led astray by their hypocrisy.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Galatians 2:20</t>
+          <t>Galatians 2:14</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>I have been crucified with Christ. It is no long173 er I who live, but Christ who lives in me. And the life I now live in the flesh I live by faith in the Son of God, who loved me and gave himself for me.</t>
+          <t>But when I saw that their i conduct was not in step with j the truth of the gospel, I said to Cephas k before them all, If you, though a Jew, l live like a Gentile and not like a Jew, how can you force the Gentiles to live like Jews? Justified by Faith</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Galatians 2:21</t>
+          <t>Galatians 2:15</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>I o not nullify the grace of God, for if righteousnes16's were through the law, then Christ died for no purpose. By Faith, or by Works of the Law 3</t>
+          <t>We ourselves are Jews by birth and not m Gentile sinners;</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Galatians 3:1</t>
+          <t>Galatians 2:16</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>O oolish Galatians! Who has bewitched you It was before your eyes that Jesus Christ was publicly portrayed as crucified. 2</t>
+          <t>yet we know that n a person is not justifie d by works of the law o but through faith in Jesus Christ, so we also have believed in Christ Jesus, in order to be justified by faith in Christ and not by works of the law, p because by works of the law no one will be justified.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Galatians 3:2</t>
+          <t>Galatians 2:17</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Let me ask you only this: Did you receive the Spirit by works of the law or by hearing with faith 3</t>
+          <t>But if, in our endeavor to be justified in Christ, we too were found q to be sinners, is Christ then a servant of sin? Certainly not!</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Galatians 3:3</t>
+          <t>Galatians 2:18</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Are you so foolish Having begun by the Spirit, are you now being perfected b y the flesh 4</t>
+          <t>For if I rebuild what I tore down, I prove myself to be a transgressor.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Galatians 3:5</t>
+          <t>Galatians 2:19</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Does he who supplies the Spirit to you and works miracles among you do so by works of the law, or by hearing with fait16 h16 6</t>
+          <t>For through the law I r died to the law, so that I might s live to God.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Galatians 3:6</t>
+          <t>Galatians 2:20</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>just as Abraham believed God, and it was counted to him as righteousness 7</t>
+          <t>I have been t crucified with Christ. It is no long?er I who live, but Christ who lives u in me. And the life I now live in the flesh I live by faith in the Son of God, v who loved me and w gave himself for me.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Galatians 3:7</t>
+          <t>Galatians 2:21</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Know then that it is those of faith who are the sons of Abraham. 8</t>
+          <t>I do not nullify the grace of God, for x if righteousnes s were through the law, y then Christ died for no purpose. By Faith, or by Works of the Law?</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Galatians 3:8</t>
+          <t>Galatians 3:1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>And the Scripture, foreseeing that God would justif16 y the Gentiles by faith, preached the gospel beforehand to Abraham, saying, In you shall all the nations be blessed. 9</t>
+          <t>O foolish Galatians! Who has bewitched you? z It was before your eyes that Jesus Christ was publicly a portrayed as crucified.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Galatians 3:9</t>
+          <t>Galatians 3:2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>So then, those who are of faith are blessed along with Abraham, the man of faith. The Righteous Shall Live by Faith</t>
+          <t>Let me ask you only this: b Did you receive the Spirit by works of the law or by c hearing with faith?</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Galatians 3:10</t>
+          <t>Galatians 3:3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>For all who rely on works of the law are under a curse; for it is written, Cursed be everyone who does not abide by all things written in the Book of the Law, and do them.</t>
+          <t>Are you so foolish? d Having begun by the Spirit, are you now being perfected b y the flesh?</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Galatians 3:11</t>
+          <t>Galatians 3:4</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Now it is evident that no one is justified before God by the law, for The righteous shall live by faith.</t>
+          <t>e Did you suffe r so many things in vai n if indeed it was in vain?</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Galatians 3:12</t>
+          <t>Galatians 3:5</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>But the law is not of faith, rather The one who does them shall live by them.</t>
+          <t>Does he who supplies the Spirit to you and f works miracles among you do so g by works of the law, or by hearing with fait h</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Galatians 3:13</t>
+          <t>Galatians 3:6</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Christ redeemed us from the curse of the law by becoming a curse for u16's for it is written, Cursed is everyone who is hanged on a tree</t>
+          <t>just as h Abraham believed God, and it was counted to him as righteousness?</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Galatians 3:14</t>
+          <t>Galatians 3:7</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>so that in Christ Jesus the blessing of Abraham might come to the Gentiles, so that we might receive the promised Spiri t through faith. The Law and the Promise</t>
+          <t>Know then that it is i those of faith who are j the sons of Abraham.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Galatians 3:16</t>
+          <t>Galatians 3:8</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Now the promises were made to Abraham and to his offspring. It does not say, And to offsprings, referring to many, but referring to one, And to your offspring, who is Christ.</t>
+          <t>And the Scripture, foreseeing that k God would justif y the Gentiles by faith, preached the gospel beforehand to Abraham, saying, l In you shall all the nations be blessed.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Galatians 3:17</t>
+          <t>Galatians 3:9</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>This is what I mean: the law, which came years afterward, does not annul a cov173 enant previously ratified by God, so as to make the promise void.</t>
+          <t>So then, those who are of faith are blessed along with Abraham, the man of faith. The Righteous Shall Live by Faith</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Galatians 3:18</t>
+          <t>Galatians 3:10</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>For if the inheritance comes by the law, it no long173 er comes by promise; but God gave it to Abraham by a promise.</t>
+          <t>For all who rely on works of the law are m under a curse; for it is written, n Cursed be everyone who does not o abide by all things written in the Book of the Law, and do them.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Galatians 3:19</t>
+          <t>Galatians 3:11</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Why then the law It was added because of transgressions, until the offspring should come to whom the promise had been made, and it was put in place through angels by an intermediary.</t>
+          <t>Now it is evident that p no one is justified before God by the law, for q The righteous shall live by faith.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Galatians 3:20</t>
+          <t>Galatians 3:12</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Now an intermediary implies more than one, but God is one.</t>
+          <t>But the law is not of faith, rather r The one who does them shall live by them.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Galatians 3:21</t>
+          <t>Galatians 3:13</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Is the law then contrary to the promises of God Certainly not! For if a law had been given that could give life, then righteousness would indeed be by the law.</t>
+          <t>Christ s redeemed us from the curse of the law by becoming a curse for u s for it is written, t Cursed is everyone who is hanged u on a tree</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Galatians 3:22</t>
+          <t>Galatians 3:14</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>But the Scripture imprisoned everything under sin, so that the promise by faith in Jesus Christ might be given to those who believe.</t>
+          <t>so that in Christ Jesus the blessing of Abraham might v come to the Gentiles, so that w we might receive x the promised Spiri t through faith. The Law and the Promise</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Galatians 3:23</t>
+          <t>Galatians 3:15</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Now before faith came, we were held captive under the law, imprisoned until the coming faith would be revealed.</t>
+          <t>y To give a human example, brothers:</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Galatians 3:24</t>
+          <t>Galatians 3:16</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>So then, the law was our guardian until Christ came, in order that we might be justified by faith.</t>
+          <t>z even with a man-made cov?enant, no one annuls it or adds to it once it has been ratified.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Galatians 3:25</t>
+          <t>Galatians 3:16</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>But now that faith has come, we are no long173 er under a guardian,</t>
+          <t>Now a the promises were made b to Abraham and to his offspring. It does not say, And to offsprings, referring to many, but referring to one, c And to your offspring, who is Christ.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Galatians 3:26</t>
+          <t>Galatians 3:17</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>for in Christ Jesus you are all sons of God, through faith.</t>
+          <t>This is what I mean: the law, which came d years afterward, does not annul a cov?enant previously ratified by God, so as e to make the promise void.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Galatians 3:27</t>
+          <t>Galatians 3:18</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>For as many of you as were baptized into Christ have put on Christ.</t>
+          <t>For if the inheritance comes by the law, it no long?er comes by promise; but f God gave it to Abraham by a promise.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Galatians 3:29</t>
+          <t>Galatians 3:19</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>And if you are Christ's, then you are Abraham's offspring, heirs according to promise. Sons and Heirs 4</t>
+          <t>Why then the law? g It was added because of transgressions, h until the offspring should come to whom the promise had been made, and it was i put in place through angels j by an intermediary.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Galatians 4:1</t>
+          <t>Galatians 3:20</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>I mean that the heir, as long as he is a child, is no different from a slave, though he is the owner of everything, 2</t>
+          <t>Now k an intermediary implies more than one, but l God is one.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Galatians 4:2</t>
+          <t>Galatians 3:21</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>but he is under guardians and managers until the date set by his father. 3</t>
+          <t>Is the law then contrary to the promises of God? Certainly not! For m if a law had been given that could give life, then righteousness would indeed be by the law.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Galatians 4:3</t>
+          <t>Galatians 3:22</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>In the same way we also, when we were children, were enslaved to the elementary principle16's of the world. 4</t>
+          <t>But the Scripture n imprisoned everything under sin, so that o the promise by faith in Jesus Christ might be given p to those who believe.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Galatians 4:4</t>
+          <t>Galatians 3:23</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>But when the fullness of time had come, God sent forth his Son, born of woman, born under the law, 5</t>
+          <t>Now before faith came, we were held captive under the law, q imprisoned until the coming faith would be revealed.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Galatians 4:5</t>
+          <t>Galatians 3:24</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>to redeem those who were under the law, so that we might receive adoption as sons. 6</t>
+          <t>So then, r the law was our s guardian until Christ came, t in order that we might be justified by faith.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Galatians 4:6</t>
+          <t>Galatians 3:25</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>And because you are sons, God has sent the Spirit of his Son into our hearts, crying, Abba! Father! 7</t>
+          <t>But now that faith has come, we are no long?er under a guardian,</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Galatians 4:7</t>
+          <t>Galatians 3:26</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>So you are no long173 er a slave, but a son, and if a son, then an heir through God. Paul's Concern for the Galatians 8</t>
+          <t>for in Christ Jesus u you are all sons of God, through faith.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Galatians 4:8</t>
+          <t>Galatians 3:27</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Formerly, when you did not know God, you were enslaved to those that by nature are not gods. 9</t>
+          <t>For as many of you as v were baptized w into Christ have x put on Christ.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Galatians 4:9</t>
+          <t>Galatians 3:28</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>But now that you have come to know God, or rather to be known by God, how can you turn back again to the weak and worthless elementary principles of the world, whose slaves you want to be once more</t>
+          <t>y There is neither Jew nor Greek, there is neither slav e nor free, z there is no male and female, for you are all one in Christ Jesus.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Galatians 4:11</t>
+          <t>Galatians 3:29</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>I m afraid I may have labored over you in vain.</t>
+          <t>And a if you are Christ s, then you are Abraham s offspring, b heirs according to promise. Sons and Heirs</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Galatians 4:12</t>
+          <t>Galatians 4:1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Brothers, I ntreat you, become as I am, for I also have become as you are. You did me no wrong.</t>
+          <t>I mean that the heir, as long as he is a child, is no different from a slave, though he is the owner of everything,</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Galatians 4:13</t>
+          <t>Galatians 4:2</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>You know it was because of a bodily ailment that I preached the gospel to you at first,</t>
+          <t>but he is under guardians and managers until the date set by his father.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Galatians 4:14</t>
+          <t>Galatians 4:3</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>and though my condition was a trial to you, you did not scorn or despise me, but received me as an angel of God, as Christ Jesus.</t>
+          <t>In the same way we also, when we were children, c were enslaved to the elementary principle s of the world.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Galatians 4:15</t>
+          <t>Galatians 4:4</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>What then has become of your blessedness For I testify to you that, if possible, you would have gouged out your eyes and given them to me.</t>
+          <t>But d when the fullness of time had come, God sent forth his Son, e born f of woman, born g under the law,</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Galatians 4:16</t>
+          <t>Galatians 4:5</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Have I then become your enemy by telling you the truth</t>
+          <t>h to redeem those who were under the law, so that we might receive i adoption as sons.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Galatians 4:17</t>
+          <t>Galatians 4:6</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>They make much of you, but for no good purpose. They want to shut you out, that you may make much of them.</t>
+          <t>And because you are sons, God has sent j the Spirit of his Son into our hearts, crying, Abba! Father!</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Galatians 4:18</t>
+          <t>Galatians 4:7</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>It is always good to be made much of for a good purpose, and not only when I am pres173 ent with you,</t>
+          <t>So you are no long?er a slave, but a son, and if a son, then k an heir through God. Paul s Concern for the Galatians</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Galatians 4:20</t>
+          <t>Galatians 4:8</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>I wish I could be pres173 ent with you now and change my tone, for I am perplexed about you. Example of Hagar and Sarah</t>
+          <t>Formerly, when you l did not know God, you m were enslaved to those that by nature n are not gods.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Galatians 4:21</t>
+          <t>Galatians 4:9</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tell me, you who desire to be under the law, do you not listen to the law</t>
+          <t>But now that you have come to know God, or rather o to be known by God, p how can you turn back again to q the weak and worthless elementary principles of the world, whose slaves you want to be once more?</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Galatians 4:22</t>
+          <t>Galatians 4:10</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>For it is written that Abraham had two sons, one by a slave woman and one by a free woman.</t>
+          <t>r You observe days and months and seasons and years!</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Galatians 4:23</t>
+          <t>Galatians 4:11</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>But the son of the slave was born according to the flesh, while the son of the free woman was born through promise.</t>
+          <t>I am afraid s I may have labored over you in vain.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Galatians 4:24</t>
+          <t>Galatians 4:12</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Now this may be interpreted allegorically: these women are two cov173 enants. One is from Mount Sinai, bearing children for slavery; she is Hagar.</t>
+          <t>Brothers,</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Galatians 4:25</t>
+          <t>Galatians 4:13</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Now Hagar is Mount Sinai in Arabia; she corresponds to the pres173 ent Jerusalem, for she is in slavery with her children.</t>
+          <t>t I entreat you, become as I am, for I also have become as you are. u You did me no wrong.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Galatians 4:26</t>
+          <t>Galatians 4:13</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>But the Jerusalem above is free, and she is our mother.</t>
+          <t>You know it was v because of a bodily ailment that I preached the gospel to you w at first,</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Galatians 4:27</t>
+          <t>Galatians 4:14</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>For it is written, - Rejoice, O rren one who does not bear; - break forth and cry aloud, you who are not in labor! - For the children of the desolate one will be more - than those of the one who has a husband.</t>
+          <t>and though my condition was a trial to you, you did not scorn or despise me, but received me x as an angel of God, y as Christ Jesus.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Galatians 4:28</t>
+          <t>Galatians 4:15</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Now you, brothers, like Isaac, are children of promise.</t>
+          <t>What then has become of your blessedness? For I testify to you that, if possible, you would have gouged out your eyes and given them to me.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Galatians 4:29</t>
+          <t>Galatians 4:16</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>But just as at that time he who was born according to the flesh persecuted him who was born according to the Spirit, so also it is now.</t>
+          <t>Have I then become your enemy by z telling you the truth?</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Galatians 4:30</t>
+          <t>Galatians 4:17</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>But what does the Scripture say Cast out the slave woman and her son, for the son of the slave woman shall not inherit with the son of the free woman.</t>
+          <t>They make much of you, but for no good purpose. They want to shut you out, that you may make much of them.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Galatians 4:31</t>
+          <t>Galatians 4:18</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>So, brothers, we are not children of the slave but of the free woman. Christ Has Set Us Free 5</t>
+          <t>It is always good to be made much of for a good purpose, and a not only when I am pres?ent with you,</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Galatians 5:1</t>
+          <t>Galatians 4:19</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>For freedom Christ has set us free; stand firm therefore, and do not submit again to a yoke of slavery. 2</t>
+          <t>b my little children, c for whom I am again in the anguish of childbirth until Christ d is formed in you!</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Galatians 5:2</t>
+          <t>Galatians 4:20</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Look: I, Paul, say to you that if you accept circumcision, Christ will be of no advantage to you. 3</t>
+          <t>I wish I could be pres?ent with you now and change my tone, for I am perplexed about you. Example of Hagar and Sarah</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Galatians 5:3</t>
+          <t>Galatians 4:21</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>I testify again to every man who accepts circumcision that he is obligated to keep the whole law. 4</t>
+          <t>Tell me, you who desire to be under the law, do you not listen to the law?</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Galatians 5:4</t>
+          <t>Galatians 4:22</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>You are severed from Christ, you who would be justifie d by the law; you have fallen away from grace. 5</t>
+          <t>For it is written that Abraham had two sons, e one by a slave woman and f one by a free woman.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Galatians 5:5</t>
+          <t>Galatians 4:23</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>For through the Spirit, by faith, we ourselves eagerly wait for the hope of righteousness. 6</t>
+          <t>But g the son of the slave was born according to the flesh, while h the son of the free woman was born through promise.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Galatians 5:6</t>
+          <t>Galatians 4:24</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>For in Christ Jesus neither circumcision nor uncircumcision counts for anything, but only faith working through love. 7</t>
+          <t>Now this may be interpreted allegorically: these women are two i cov?enants. j One is from Mount Sinai, bearing children for slavery; she is Hagar.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Galatians 5:8</t>
+          <t>Galatians 4:25</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>This persuasion is not from him who calls you. 9</t>
+          <t>Now Hagar is Mount Sinai in Arabia; she corresponds to the pres?ent Jerusalem, for she is in slavery with her children.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Galatians 5:11</t>
+          <t>Galatians 4:26</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>But if I, brothers, still preac16 h circumcision, why am I still being persecuted In that case the offense of the cross has been removed.</t>
+          <t>But k the Jerusalem above is free, and she is our mother.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Galatians 5:12</t>
+          <t>Galatians 4:27</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>I wish those who unsettle you would emasculate themselves!</t>
+          <t>For it is written, l Rejoice, O barren one who does not bear; break forth and cry aloud, you who are not in labor! For the children of the desolate one will be more than those of the one who has a husband.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Galatians 5:13</t>
+          <t>Galatians 4:28</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>For you were called to freedom, brothers. Only do not use your freedom as an opportunity for the flesh, but through love serve one another.</t>
+          <t>Now you, brothers, m like Isaac, n are children of promise.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Galatians 5:14</t>
+          <t>Galatians 4:29</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>For the whole law is fulfilled in one word: You shall love your neighbor as yourself.</t>
+          <t>But just as at that time he who was born according to the flesh o persecuted him who was born according to the Spirit, p so also it is now.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Galatians 5:15</t>
+          <t>Galatians 4:30</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>But if you bite and devour one another, watch out that you are not consumed by one another. Keep in Step with the Spirit</t>
+          <t>But what does the Scripture say? q Cast out the slave woman and her son, for the son of the slave woman shall not inherit with the son of the free woman.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Galatians 5:16</t>
+          <t>Galatians 4:31</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>But I say, walk by the Spirit, and you will not gratify the desires of the flesh.</t>
+          <t>So, brothers, we are not children of the slave but r of the free woman. Christ Has Set Us Free</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Galatians 5:17</t>
+          <t>Galatians 5:1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>For the desires of the flesh are against the Spirit, and the desires of the Spirit are against the flesh, for these are opposed to each other, to keep you from doing the things you want to do.</t>
+          <t>For s freedom Christ has t set us free; u stand firm therefore, and do not submit again to v a yoke of w slavery.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Galatians 5:18</t>
+          <t>Galatians 5:2</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>But if you are led by the Spirit, you are not under the law.</t>
+          <t>Look: I, Paul, say to you that x if you accept circumcision, y Christ will be of no advantage to you.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Galatians 5:19</t>
+          <t>Galatians 5:3</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Now the works of the flesh are evident: sexual immorality, impurity, sensuality,</t>
+          <t>I testify again to every man who accepts circumcision that z he is obligated to keep the whole law.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Galatians 5:20</t>
+          <t>Galatians 5:4</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>idolatry, sorcery, enmity, strife, jealousy, fits of anger, rivalries, dissensions, divisions,</t>
+          <t>You are a severed from Christ, b you who would be justifie d by the law; c you have fallen away from grace.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Galatians 5:21</t>
+          <t>Galatians 5:5</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>envy, drunkenness, orgies, and things like these. I warn you, as I warned you before, that those who d16 o such things will not inherit the kingdom of God.</t>
+          <t>For through the Spirit, by faith, we ourselves eagerly d wait for the hope of righteousness.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Galatians 5:22</t>
+          <t>Galatians 5:6</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>But the fruit of the Spirit is love, joy, peace, patience, kindness, goodness, faithfulness,</t>
+          <t>For in Christ Jesus e neither circumcision nor uncircumcision counts for anything, but f only faith working through love.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Galatians 5:24</t>
+          <t>Galatians 5:7</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>And those who belong to Christ Jesus have crucified the flesh with its passions and desires.</t>
+          <t>g You were running well. Who hindered you from obeying h the truth?</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Galatians 5:25</t>
+          <t>Galatians 5:8</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>If we live by the Spirit, let us also keep in step with the Spirit.</t>
+          <t>This persuasion is not from i him who calls you.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Galatians 6:1</t>
+          <t>Galatians 5:9</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Brothers, if anyone is caught in any transgression, you who are spiritual should restore him in a spirit of gentleness. Keep watch on yourself, lest you too be tempted. 2</t>
+          <t>j A little leaven leavens the whole lump.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Galatians 6:3</t>
+          <t>Galatians 5:10</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>For if anyone thinks he is something, when he is nothing, he deceives himself. 4</t>
+          <t>k I have confidence in the Lord that you will l take no other view, and m the one who is troubling you will bear the penalty, whoever he is.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Galatians 6:4</t>
+          <t>Galatians 5:11</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>But let each one test his own work, and then his reason to boast will be in himself alone and not in his neighbor. 5</t>
+          <t>But if I, brothers, still preac h circumcision, n why am I still being persecuted? In that case o the offense of the cross has been removed.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Galatians 6:5</t>
+          <t>Galatians 5:12</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>For each will have to bear his own load. 6</t>
+          <t>I wish p those who unsettle you would emasculate themselves!</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Galatians 6:8</t>
+          <t>Galatians 5:13</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>For the one who sows to his own flesh will from the flesh reap corruption, but the one who sows to the Spirit will from the Spirit reap eternal life. 9</t>
+          <t>For you were called to freedom, brothers. q Only do not use your freedom as an opportunity for the flesh, but through love r serve one another.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Galatians 6:9</t>
+          <t>Galatians 5:14</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>And let us not grow weary of doing good, for in due season we will reap, if we do not give up.</t>
+          <t>For s the whole law is fulfilled in one word: t You shall love your neighbor as yourself.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Galatians 6:10</t>
+          <t>Galatians 5:15</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>So then, as we have opportunity, let us do good to everyone, and especially to those who are of the household of faith. Final Warning and Benediction</t>
+          <t>But if you u bite and devour one another, watch out that you are not consumed by one another. Keep in Step with the Spirit</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Galatians 6:11</t>
+          <t>Galatians 5:16</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>See with what large letters I am writing to you with my own hand.</t>
+          <t>But I say, v walk by the Spirit, and you will not gratify w the desires of the flesh.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Galatians 6:13</t>
+          <t>Galatians 5:17</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>For even those who are circumcised do not themselves keep the law, but they desire to have you circumcised that they may boast in your flesh.</t>
+          <t>For x the desires of the flesh are against the Spirit, and the desires of the Spirit are against the flesh, for these are opposed to each other, y to keep you from doing the things you want to do.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Galatians 6:14</t>
+          <t>Galatians 5:18</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>But far be it from me to boast except in the cross of our Lord Jesus Christ, by whic h the world has been crucified to me, and I to the world.</t>
+          <t>But if you are z led by the Spirit, a you are not under the law.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Galatians 6:15</t>
+          <t>Galatians 5:19</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>For neither circumcision counts for anything, nor uncircumcision, but a new creation.</t>
+          <t>Now b the works of the flesh are evident: sexual immorality, impurity, sensuality,</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Galatians 6:16</t>
+          <t>Galatians 5:20</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>And as for all who walk by this rule, peace and mercy be upon them, and upon the Israel of God.</t>
+          <t>idolatry, sorcery, enmity, strife, jealousy, fits of anger, rivalries, dissensions, c divisions,</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>Galatians 5:21</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>envy, drunkenness, orgies, and things like these. I warn you, as I warned you before, that d those who d o such things will not inherit the kingdom of God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Galatians 5:22</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>But e the fruit of the Spirit is f love, joy, peace, patience, g kindness, goodness, faithfulness,</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Galatians 5:23</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>h gentleness, i self-control; j against such things there is no law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Galatians 5:24</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>And those who belong to Christ Jesus k have crucified the flesh with its l passions and desires.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Galatians 5:25</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>If we live by the Spirit, m let us also keep in step with the Spirit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Galatians 5:26</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>n Let us not become conceited, provoking one another, envying one another. Bear One Another s Burdens</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Galatians 6:1</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Brothers,</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Galatians 6:2</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>o if anyone is caught in any transgression, p you who are spiritual should restore him in q a spirit of gentleness. Keep watch on yourself, lest you too be tempted.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Galatians 6:3</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>r Bear one another s burdens, and s so fulfill t the law of Christ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Galatians 6:3</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>For u if anyone thinks he is something, v when he is nothing, he deceives himself.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Galatians 6:4</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>But let each one w test his own work, and then his reason to boast will be in himself alone and not in his neighbor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Galatians 6:5</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>For x each will have to bear his own load.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Galatians 6:6</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>y Let the one who is taught the word share all good things with the one who teaches.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Galatians 6:7</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>z Do not be deceived: God is not mocked, for a whatever one sows, that will he also reap.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Galatians 6:8</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>For b the one who sows to his own flesh c will from the flesh reap corruption, but d the one who sows to the Spirit will from the Spirit reap eternal life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Galatians 6:9</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>And e let us not grow weary of doing good, for in due season we will reap, f if we do not give up.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Galatians 6:10</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>So then, g as we have opportunity, let us h do good to everyone, and especially to those who are i of the household of faith. Final Warning and Benediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Galatians 6:11</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>See with what large letters I am writing to you j with my own hand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Galatians 6:12</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>k It is those who want to make a good showing in the flesh l who would force you to be circumcised, and only m in order that they may not be persecuted for the cross of Christ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Galatians 6:13</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>For even those who are circumcised do not themselves keep the law, but they desire to have you circumcised that they may boast in your flesh.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Galatians 6:14</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>But far be it from me to boast n except in the cross of our Lord Jesus Christ, by whic h the world o has been crucified to me, and I to the world.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Galatians 6:15</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>For p neither circumcision counts for anything, nor uncircumcision, but q a new creation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Galatians 6:16</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>And as for all who walk by this rule, r peace and mercy be upon them, and upon s the Israel of God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
           <t>Galatians 6:17</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>From now on let no one cause me trouble, for I bear on my body the marks of Jesus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Galatians 6:18</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>t The grace of our Lord Jesus Christ be u with your spirit, brothers. Amen.</t>
         </is>
       </c>
     </row>
